--- a/TestLogs.xlsx
+++ b/TestLogs.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet 2 NEW" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet 3 FINAL" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="11">
   <si>
     <t>test-precision.batch and test-precision2.batch</t>
   </si>
@@ -50,6 +51,15 @@
   <si>
     <t>test-threadcountBIG.batch</t>
   </si>
+  <si>
+    <t>Speed up</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
+  </si>
+  <si>
+    <t>test-threadcountPREC.batch</t>
+  </si>
 </sst>
 </file>
 
@@ -59,8 +69,8 @@
     <numFmt numFmtId="164" formatCode="0.000000000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.000000"/>
-    <numFmt numFmtId="169" formatCode="0.0000000"/>
+    <numFmt numFmtId="167" formatCode="0.000000"/>
+    <numFmt numFmtId="168" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -127,8 +137,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="57">
+  <cellStyleXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -212,16 +246,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="57">
+  <cellStyles count="81">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -250,6 +284,18 @@
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -278,6 +324,18 @@
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -555,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView showRuler="0" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1418,8 +1476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27:I32"/>
+    <sheetView showRuler="0" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1470,7 +1528,7 @@
         <v>5.6442221216666661</v>
       </c>
       <c r="F4" s="7">
-        <f>$E$4/E4</f>
+        <f t="shared" ref="F4:F11" si="1">$E$4/E4</f>
         <v>1</v>
       </c>
     </row>
@@ -1485,7 +1543,7 @@
         <v>5.6710000000000003</v>
       </c>
       <c r="F5" s="12">
-        <f>$E$4/E5</f>
+        <f t="shared" si="1"/>
         <v>0.99527810292129537</v>
       </c>
     </row>
@@ -1507,7 +1565,7 @@
         <v>4.0950039999999994</v>
       </c>
       <c r="F6" s="12">
-        <f>$E$4/E6</f>
+        <f t="shared" si="1"/>
         <v>1.3783190740880027</v>
       </c>
     </row>
@@ -1529,7 +1587,7 @@
         <v>3.9259626666666669</v>
       </c>
       <c r="F7" s="12">
-        <f>$E$4/E7</f>
+        <f t="shared" si="1"/>
         <v>1.4376657652883096</v>
       </c>
     </row>
@@ -1551,7 +1609,7 @@
         <v>3.7044650000000003</v>
       </c>
       <c r="F8" s="12">
-        <f>$E$4/E8</f>
+        <f t="shared" si="1"/>
         <v>1.523626791363035</v>
       </c>
     </row>
@@ -1573,7 +1631,7 @@
         <v>3.760130666666667</v>
       </c>
       <c r="F9" s="12">
-        <f>$E$4/E9</f>
+        <f t="shared" si="1"/>
         <v>1.5010707398288994</v>
       </c>
     </row>
@@ -1595,7 +1653,7 @@
         <v>4.0398113333333336</v>
       </c>
       <c r="F10" s="12">
-        <f>$E$4/E10</f>
+        <f t="shared" si="1"/>
         <v>1.3971499300214842</v>
       </c>
     </row>
@@ -1617,7 +1675,7 @@
         <v>4.6414893333333334</v>
       </c>
       <c r="F11" s="12">
-        <f>$E$4/E11</f>
+        <f t="shared" si="1"/>
         <v>1.2160368615160018</v>
       </c>
     </row>
@@ -1654,11 +1712,11 @@
         <v>495.77790148700001</v>
       </c>
       <c r="E15" s="12">
-        <f t="shared" ref="E15:E22" si="1">AVERAGE(B15:D15)</f>
+        <f t="shared" ref="E15:E22" si="2">AVERAGE(B15:D15)</f>
         <v>494.45451481600003</v>
       </c>
       <c r="F15" s="7">
-        <f>$E$15/E15</f>
+        <f t="shared" ref="F15:F22" si="3">$E$15/E15</f>
         <v>1</v>
       </c>
     </row>
@@ -1675,7 +1733,7 @@
         <v>496.414422</v>
       </c>
       <c r="F16" s="7">
-        <f>$E$15/E16</f>
+        <f t="shared" si="3"/>
         <v>0.99605187299735631</v>
       </c>
     </row>
@@ -1693,11 +1751,11 @@
         <v>560.878827</v>
       </c>
       <c r="E17" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>560.33076033333327</v>
       </c>
       <c r="F17" s="7">
-        <f>$E$15/E17</f>
+        <f t="shared" si="3"/>
         <v>0.88243328729955084</v>
       </c>
     </row>
@@ -1715,11 +1773,11 @@
         <v>553.30991800000004</v>
       </c>
       <c r="E18" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>480.2625103333333</v>
       </c>
       <c r="F18" s="12">
-        <f>$E$15/E18</f>
+        <f t="shared" si="3"/>
         <v>1.0295505149315456</v>
       </c>
     </row>
@@ -1737,11 +1795,11 @@
         <v>386.71900199999999</v>
       </c>
       <c r="E19" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>386.79360000000003</v>
       </c>
       <c r="F19" s="12">
-        <f>$E$15/E19</f>
+        <f t="shared" si="3"/>
         <v>1.2783420274172064</v>
       </c>
     </row>
@@ -1759,11 +1817,11 @@
         <v>358.98238099999998</v>
       </c>
       <c r="E20" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>359.33293166666664</v>
       </c>
       <c r="F20" s="12">
-        <f>$E$15/E20</f>
+        <f t="shared" si="3"/>
         <v>1.3760345107324543</v>
       </c>
     </row>
@@ -1781,11 +1839,11 @@
         <v>322.18988200000001</v>
       </c>
       <c r="E21" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>323.11726933333335</v>
       </c>
       <c r="F21" s="12">
-        <f>$E$15/E21</f>
+        <f t="shared" si="3"/>
         <v>1.530263349390689</v>
       </c>
     </row>
@@ -1803,11 +1861,11 @@
         <v>302.71821199999999</v>
       </c>
       <c r="E22" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>302.74389066666669</v>
       </c>
       <c r="F22" s="12">
-        <f>$E$15/E22</f>
+        <f t="shared" si="3"/>
         <v>1.6332435766983471</v>
       </c>
     </row>
@@ -1848,7 +1906,7 @@
         <v>6.7120000000000001E-3</v>
       </c>
       <c r="E27" s="15">
-        <f t="shared" ref="E27:E32" si="2">AVERAGE(B27:D27)</f>
+        <f t="shared" ref="E27:E32" si="4">AVERAGE(B27:D27)</f>
         <v>6.8560000000000001E-3</v>
       </c>
       <c r="G27" s="12">
@@ -1877,18 +1935,18 @@
         <v>0.162133</v>
       </c>
       <c r="E28" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.16284166666666666</v>
       </c>
       <c r="G28" s="12">
         <v>0.161083</v>
       </c>
       <c r="H28" s="12">
-        <f t="shared" ref="H28:H32" si="3">G28/E28</f>
+        <f t="shared" ref="H28:H32" si="5">G28/E28</f>
         <v>0.9892001432884705</v>
       </c>
       <c r="I28" s="16">
-        <f t="shared" ref="I28:I32" si="4">H28/16</f>
+        <f t="shared" ref="I28:I32" si="6">H28/16</f>
         <v>6.1825008955529406E-2</v>
       </c>
     </row>
@@ -1906,18 +1964,18 @@
         <v>3.7744119999999999</v>
       </c>
       <c r="E29" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.7834876666666664</v>
       </c>
       <c r="G29" s="12">
         <v>5.4758789999999999</v>
       </c>
       <c r="H29" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.4473098586374848</v>
       </c>
       <c r="I29" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9.0456866164842803E-2</v>
       </c>
     </row>
@@ -1935,18 +1993,18 @@
         <v>15.502113</v>
       </c>
       <c r="E30" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15.526413333333332</v>
       </c>
       <c r="G30" s="12">
         <v>23.066980999999998</v>
       </c>
       <c r="H30" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.4856606290699461</v>
       </c>
       <c r="I30" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9.2853789316871632E-2</v>
       </c>
     </row>
@@ -1964,18 +2022,18 @@
         <v>106.28789999999999</v>
       </c>
       <c r="E31" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>106.326885</v>
       </c>
       <c r="G31" s="12">
         <v>160.05947599999999</v>
       </c>
       <c r="H31" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.5053528183394067</v>
       </c>
       <c r="I31" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9.4084551146212919E-2</v>
       </c>
     </row>
@@ -1993,18 +2051,18 @@
         <v>357.99762800000002</v>
       </c>
       <c r="E32" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>358.64001400000001</v>
       </c>
       <c r="G32" s="12">
         <v>540.46588599999995</v>
       </c>
       <c r="H32" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.5069871316701431</v>
       </c>
       <c r="I32" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9.4186695729383943E-2</v>
       </c>
     </row>
@@ -2069,14 +2127,14 @@
         <v>0.839889</v>
       </c>
       <c r="E37" s="12">
-        <f t="shared" ref="E37:E42" si="5">AVERAGE(B37:D37)</f>
+        <f t="shared" ref="E37:E42" si="7">AVERAGE(B37:D37)</f>
         <v>0.840669</v>
       </c>
       <c r="G37" s="12">
         <v>0.97748199999999996</v>
       </c>
       <c r="H37" s="12">
-        <f t="shared" ref="H37:H42" si="6">G37/E37</f>
+        <f t="shared" ref="H37:H42" si="8">G37/E37</f>
         <v>1.1627430058679455</v>
       </c>
     </row>
@@ -2094,14 +2152,14 @@
         <v>1.3902699999999999</v>
       </c>
       <c r="E38" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.4033926666666667</v>
       </c>
       <c r="G38" s="12">
         <v>1.8836189999999999</v>
       </c>
       <c r="H38" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.3421895701321891</v>
       </c>
     </row>
@@ -2119,14 +2177,14 @@
         <v>3.7687710000000001</v>
       </c>
       <c r="E39" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.7729270000000006</v>
       </c>
       <c r="G39" s="12">
         <v>5.4891839999999998</v>
       </c>
       <c r="H39" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.4548874123459052</v>
       </c>
     </row>
@@ -2144,14 +2202,14 @@
         <v>22.099142000000001</v>
       </c>
       <c r="E40" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>22.130328000000002</v>
       </c>
       <c r="G40" s="12">
         <v>33.476080000000003</v>
       </c>
       <c r="H40" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.5126788902541346</v>
       </c>
     </row>
@@ -2169,14 +2227,14 @@
         <v>92.540982</v>
       </c>
       <c r="E41" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>92.592861333333346</v>
       </c>
       <c r="G41" s="12">
         <v>141.79021499999999</v>
       </c>
       <c r="H41" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.5313298774681634</v>
       </c>
     </row>
@@ -2194,16 +2252,1013 @@
         <v>289.90912400000002</v>
       </c>
       <c r="E42" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>290.09394633333335</v>
       </c>
       <c r="G42" s="12">
         <v>442.473412</v>
       </c>
       <c r="H42" s="12">
+        <f t="shared" si="8"/>
+        <v>1.5252762685767132</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:I51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="7"/>
+    <col min="2" max="2" width="22.6640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="20.5" style="7" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8">
+        <v>3</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="11">
+        <f>5.448177365</f>
+        <v>5.4481773650000003</v>
+      </c>
+      <c r="C4" s="11">
+        <v>6.0564460000000002</v>
+      </c>
+      <c r="D4" s="11">
+        <v>5.4280429999999997</v>
+      </c>
+      <c r="E4" s="12">
+        <f t="shared" ref="E4:E10" si="0">AVERAGE(B4:D4)</f>
+        <v>5.6442221216666661</v>
+      </c>
+      <c r="F4" s="12">
+        <f>$E$4/E4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="10">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11">
+        <v>2.9228429999999999</v>
+      </c>
+      <c r="C5" s="11">
+        <v>2.9198089999999999</v>
+      </c>
+      <c r="D5" s="11">
+        <v>2.9065189999999999</v>
+      </c>
+      <c r="E5" s="12">
+        <f t="shared" si="0"/>
+        <v>2.9163903333333328</v>
+      </c>
+      <c r="F5" s="12">
+        <f>$E$4/E5</f>
+        <v>1.9353452304224026</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="10">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11">
+        <v>1.819072</v>
+      </c>
+      <c r="C6" s="11">
+        <v>1.803188</v>
+      </c>
+      <c r="D6" s="11">
+        <v>1.8151010000000001</v>
+      </c>
+      <c r="E6" s="12">
+        <f t="shared" si="0"/>
+        <v>1.8124536666666666</v>
+      </c>
+      <c r="F6" s="12">
+        <f>$E$4/E6</f>
+        <v>3.1141331916346915</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="10">
+        <v>8</v>
+      </c>
+      <c r="B7" s="11">
+        <v>1.262918</v>
+      </c>
+      <c r="C7" s="11">
+        <v>1.237654</v>
+      </c>
+      <c r="D7" s="11">
+        <v>1.2502549999999999</v>
+      </c>
+      <c r="E7" s="12">
+        <f t="shared" si="0"/>
+        <v>1.2502756666666668</v>
+      </c>
+      <c r="F7" s="12">
+        <f>$E$4/E7</f>
+        <v>4.514382125595235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="10">
+        <v>16</v>
+      </c>
+      <c r="B8" s="11">
+        <v>0.97729200000000005</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0.99728600000000001</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0.968252</v>
+      </c>
+      <c r="E8" s="12">
+        <f t="shared" si="0"/>
+        <v>0.98094333333333339</v>
+      </c>
+      <c r="F8" s="12">
+        <f>$E$4/E8</f>
+        <v>5.7538717374092281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="10">
+        <v>32</v>
+      </c>
+      <c r="B9" s="11">
+        <v>0.85610699999999995</v>
+      </c>
+      <c r="C9" s="11">
+        <v>0.83506000000000002</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0.83166600000000002</v>
+      </c>
+      <c r="E9" s="12">
+        <f t="shared" si="0"/>
+        <v>0.8409443333333334</v>
+      </c>
+      <c r="F9" s="12">
+        <f>$E$4/E9</f>
+        <v>6.7117666389332928</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="10">
+        <v>64</v>
+      </c>
+      <c r="B10" s="11">
+        <v>0.79712300000000003</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0.76092199999999999</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0.77841000000000005</v>
+      </c>
+      <c r="E10" s="12">
+        <f t="shared" si="0"/>
+        <v>0.77881833333333328</v>
+      </c>
+      <c r="F10" s="12">
+        <f>$E$4/E10</f>
+        <v>7.2471613469979088</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="8">
+        <v>1</v>
+      </c>
+      <c r="C13" s="8">
+        <v>2</v>
+      </c>
+      <c r="D13" s="8">
+        <v>3</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="13">
+        <v>491.44198896099999</v>
+      </c>
+      <c r="C14" s="13">
+        <v>496.14365400000003</v>
+      </c>
+      <c r="D14" s="13">
+        <v>495.77790148700001</v>
+      </c>
+      <c r="E14" s="12">
+        <f t="shared" ref="E14:E20" si="1">AVERAGE(B14:D14)</f>
+        <v>494.45451481600003</v>
+      </c>
+      <c r="F14" s="12">
+        <f>$E$14/E14</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="10">
+        <v>2</v>
+      </c>
+      <c r="B15" s="13">
+        <v>340.94222500000001</v>
+      </c>
+      <c r="C15" s="13">
+        <v>336.38619699999998</v>
+      </c>
+      <c r="D15" s="13">
+        <v>311.310969</v>
+      </c>
+      <c r="E15" s="12">
+        <f t="shared" si="1"/>
+        <v>329.54646366666668</v>
+      </c>
+      <c r="F15" s="12">
+        <f>$E$14/E15</f>
+        <v>1.5004091056371838</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="10">
+        <v>4</v>
+      </c>
+      <c r="B16" s="13">
+        <v>271.076278</v>
+      </c>
+      <c r="C16" s="13">
+        <v>276.21428200000003</v>
+      </c>
+      <c r="D16" s="13">
+        <v>273.934371</v>
+      </c>
+      <c r="E16" s="12">
+        <f t="shared" si="1"/>
+        <v>273.74164366666668</v>
+      </c>
+      <c r="F16" s="12">
+        <f>$E$14/E16</f>
+        <v>1.8062816756448423</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="10">
+        <v>8</v>
+      </c>
+      <c r="B17" s="13">
+        <v>168.17733100000001</v>
+      </c>
+      <c r="C17" s="13">
+        <v>168.34925000000001</v>
+      </c>
+      <c r="D17" s="13">
+        <v>167.69157100000001</v>
+      </c>
+      <c r="E17" s="12">
+        <f t="shared" si="1"/>
+        <v>168.07271733333334</v>
+      </c>
+      <c r="F17" s="12">
+        <f>$E$14/E17</f>
+        <v>2.9419082565040222</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="10">
+        <v>16</v>
+      </c>
+      <c r="B18" s="13">
+        <v>119.56536800000001</v>
+      </c>
+      <c r="C18" s="13">
+        <v>118.334292</v>
+      </c>
+      <c r="D18" s="13">
+        <v>119.84914499999999</v>
+      </c>
+      <c r="E18" s="12">
+        <f t="shared" si="1"/>
+        <v>119.24960166666666</v>
+      </c>
+      <c r="F18" s="12">
+        <f>$E$14/E18</f>
+        <v>4.1463829472414311</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="10">
+        <v>32</v>
+      </c>
+      <c r="B19" s="13">
+        <v>90.998413999999997</v>
+      </c>
+      <c r="C19" s="13">
+        <v>92.293627000000001</v>
+      </c>
+      <c r="D19" s="13">
+        <v>92.078513999999998</v>
+      </c>
+      <c r="E19" s="12">
+        <f t="shared" si="1"/>
+        <v>91.790184999999994</v>
+      </c>
+      <c r="F19" s="12">
+        <f>$E$14/E19</f>
+        <v>5.3867906989837753</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="10">
+        <v>64</v>
+      </c>
+      <c r="B20" s="13">
+        <v>79.008077</v>
+      </c>
+      <c r="C20" s="13">
+        <v>80.164416000000003</v>
+      </c>
+      <c r="D20" s="13">
+        <v>78.931021999999999</v>
+      </c>
+      <c r="E20" s="12">
+        <f t="shared" si="1"/>
+        <v>79.367838333333339</v>
+      </c>
+      <c r="F20" s="12">
+        <f>$E$14/E20</f>
+        <v>6.2299103163092742</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="10"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B23" s="8">
+        <v>1</v>
+      </c>
+      <c r="C23" s="8">
+        <v>2</v>
+      </c>
+      <c r="D23" s="8">
+        <v>3</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="13">
+        <v>493.46201600000001</v>
+      </c>
+      <c r="C24" s="13">
+        <v>492.72993100000002</v>
+      </c>
+      <c r="D24" s="13">
+        <v>492.639116</v>
+      </c>
+      <c r="E24" s="12">
+        <f t="shared" ref="E24:E30" si="2">AVERAGE(B24:D24)</f>
+        <v>492.94368766666668</v>
+      </c>
+      <c r="F24" s="12">
+        <f>$E$24/E24</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="10">
+        <v>2</v>
+      </c>
+      <c r="B25" s="13">
+        <v>196.68972199999999</v>
+      </c>
+      <c r="C25" s="13">
+        <v>197.127813</v>
+      </c>
+      <c r="D25" s="13">
+        <v>196.61549299999999</v>
+      </c>
+      <c r="E25" s="12">
+        <f t="shared" si="2"/>
+        <v>196.81100933333335</v>
+      </c>
+      <c r="F25" s="12">
+        <f>$E$24/E25</f>
+        <v>2.5046550461604595</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="10">
+        <v>4</v>
+      </c>
+      <c r="B26" s="13">
+        <v>106.93289900000001</v>
+      </c>
+      <c r="C26" s="13">
+        <v>107.108294</v>
+      </c>
+      <c r="D26" s="13">
+        <v>106.99516</v>
+      </c>
+      <c r="E26" s="12">
+        <f t="shared" si="2"/>
+        <v>107.01211766666667</v>
+      </c>
+      <c r="F26" s="12">
+        <f>$E$24/E26</f>
+        <v>4.6064286775647494</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="10">
+        <v>8</v>
+      </c>
+      <c r="B27" s="13">
+        <v>54.279949999999999</v>
+      </c>
+      <c r="C27" s="13">
+        <v>54.404338000000003</v>
+      </c>
+      <c r="D27" s="13">
+        <v>54.217832000000001</v>
+      </c>
+      <c r="E27" s="12">
+        <f t="shared" si="2"/>
+        <v>54.300706666666677</v>
+      </c>
+      <c r="F27" s="12">
+        <f>$E$24/E27</f>
+        <v>9.0780344847568575</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="10">
+        <v>16</v>
+      </c>
+      <c r="B28" s="13">
+        <v>30.856787000000001</v>
+      </c>
+      <c r="C28" s="13">
+        <v>30.893827999999999</v>
+      </c>
+      <c r="D28" s="13">
+        <v>30.827452999999998</v>
+      </c>
+      <c r="E28" s="12">
+        <f t="shared" si="2"/>
+        <v>30.859356000000002</v>
+      </c>
+      <c r="F28" s="12">
+        <f>$E$24/E28</f>
+        <v>15.973881232863921</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="10">
+        <v>32</v>
+      </c>
+      <c r="B29" s="13">
+        <v>15.534579000000001</v>
+      </c>
+      <c r="C29" s="13">
+        <v>15.514094999999999</v>
+      </c>
+      <c r="D29" s="13">
+        <v>15.460324</v>
+      </c>
+      <c r="E29" s="12">
+        <f t="shared" si="2"/>
+        <v>15.502999333333333</v>
+      </c>
+      <c r="F29" s="12">
+        <f>$E$24/E29</f>
+        <v>31.796665733370563</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="10">
+        <v>64</v>
+      </c>
+      <c r="B30" s="13">
+        <v>9.8776650000000004</v>
+      </c>
+      <c r="C30" s="13">
+        <v>9.9002079999999992</v>
+      </c>
+      <c r="D30" s="13">
+        <v>9.8739930000000005</v>
+      </c>
+      <c r="E30" s="12">
+        <f t="shared" si="2"/>
+        <v>9.8839553333333328</v>
+      </c>
+      <c r="F30" s="12">
+        <f>$E$24/E30</f>
+        <v>49.873119722043803</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B34" s="8">
+        <v>1</v>
+      </c>
+      <c r="C34" s="8">
+        <v>2</v>
+      </c>
+      <c r="D34" s="8">
+        <v>3</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="10">
+        <v>18</v>
+      </c>
+      <c r="B35" s="13">
+        <v>6.5560000000000002E-3</v>
+      </c>
+      <c r="C35" s="13">
+        <v>7.0390000000000001E-3</v>
+      </c>
+      <c r="D35" s="13">
+        <v>6.9030000000000003E-3</v>
+      </c>
+      <c r="E35" s="15">
+        <f t="shared" ref="E35:E40" si="3">AVERAGE(B35:D35)</f>
+        <v>6.8326666666666666E-3</v>
+      </c>
+      <c r="G35" s="12">
+        <v>2.5222E-3</v>
+      </c>
+      <c r="H35" s="12">
+        <f>G35/E35</f>
+        <v>0.36913845253195438</v>
+      </c>
+      <c r="I35" s="16">
+        <f>H35/16</f>
+        <v>2.3071153283247148E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="10">
+        <v>100</v>
+      </c>
+      <c r="B36" s="13">
+        <v>4.1001000000000003E-2</v>
+      </c>
+      <c r="C36" s="13">
+        <v>4.2325000000000002E-2</v>
+      </c>
+      <c r="D36" s="13">
+        <v>4.2189999999999998E-2</v>
+      </c>
+      <c r="E36" s="15">
+        <f t="shared" si="3"/>
+        <v>4.183866666666667E-2</v>
+      </c>
+      <c r="G36" s="12">
+        <v>0.161083</v>
+      </c>
+      <c r="H36" s="12">
+        <f t="shared" ref="H36:H40" si="4">G36/E36</f>
+        <v>3.8500987921858565</v>
+      </c>
+      <c r="I36" s="16">
+        <f t="shared" ref="I36:I40" si="5">H36/16</f>
+        <v>0.24063117451161603</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="10">
+        <v>1000</v>
+      </c>
+      <c r="B37" s="13">
+        <v>0.97545999999999999</v>
+      </c>
+      <c r="C37" s="13">
+        <v>0.96542099999999997</v>
+      </c>
+      <c r="D37" s="13">
+        <v>0.96457000000000004</v>
+      </c>
+      <c r="E37" s="15">
+        <f t="shared" si="3"/>
+        <v>0.96848366666666674</v>
+      </c>
+      <c r="G37" s="12">
+        <v>5.4758789999999999</v>
+      </c>
+      <c r="H37" s="12">
+        <f t="shared" si="4"/>
+        <v>5.6540747030323342</v>
+      </c>
+      <c r="I37" s="16">
+        <f t="shared" si="5"/>
+        <v>0.35337966893952089</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="10">
+        <v>2000</v>
+      </c>
+      <c r="B38" s="13">
+        <v>3.949668</v>
+      </c>
+      <c r="C38" s="13">
+        <v>3.9479320000000002</v>
+      </c>
+      <c r="D38" s="13">
+        <v>3.9463330000000001</v>
+      </c>
+      <c r="E38" s="15">
+        <f t="shared" si="3"/>
+        <v>3.9479776666666666</v>
+      </c>
+      <c r="G38" s="12">
+        <v>23.066980999999998</v>
+      </c>
+      <c r="H38" s="12">
+        <f t="shared" si="4"/>
+        <v>5.8427334062089002</v>
+      </c>
+      <c r="I38" s="16">
+        <f t="shared" si="5"/>
+        <v>0.36517083788805627</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="10">
+        <v>5000</v>
+      </c>
+      <c r="B39" s="13">
+        <v>33.165188999999998</v>
+      </c>
+      <c r="C39" s="13">
+        <v>33.127065000000002</v>
+      </c>
+      <c r="D39" s="13">
+        <v>33.493284000000003</v>
+      </c>
+      <c r="E39" s="15">
+        <f t="shared" si="3"/>
+        <v>33.261845999999998</v>
+      </c>
+      <c r="G39" s="12">
+        <v>160.05947599999999</v>
+      </c>
+      <c r="H39" s="12">
+        <f t="shared" si="4"/>
+        <v>4.8121044153712935</v>
+      </c>
+      <c r="I39" s="16">
+        <f t="shared" si="5"/>
+        <v>0.30075652596070584</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="10">
+        <v>10000</v>
+      </c>
+      <c r="B40" s="13">
+        <v>121.035313</v>
+      </c>
+      <c r="C40" s="13">
+        <v>122.034401</v>
+      </c>
+      <c r="D40" s="13">
+        <v>121.079773</v>
+      </c>
+      <c r="E40" s="15">
+        <f t="shared" si="3"/>
+        <v>121.38316233333335</v>
+      </c>
+      <c r="G40" s="12">
+        <v>540.46588599999995</v>
+      </c>
+      <c r="H40" s="12">
+        <f t="shared" si="4"/>
+        <v>4.4525605991036308</v>
+      </c>
+      <c r="I40" s="16">
+        <f t="shared" si="5"/>
+        <v>0.27828503744397692</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B43" s="14">
+        <v>1</v>
+      </c>
+      <c r="C43" s="14">
+        <v>2</v>
+      </c>
+      <c r="D43" s="14">
+        <v>3</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="10">
+        <v>1</v>
+      </c>
+      <c r="B44" s="13">
+        <v>0.69358900000000001</v>
+      </c>
+      <c r="C44" s="7">
+        <v>0.70243800000000001</v>
+      </c>
+      <c r="D44" s="13">
+        <v>0.69213100000000005</v>
+      </c>
+      <c r="E44" s="12">
+        <f>AVERAGE(B44:D44)</f>
+        <v>0.69605266666666665</v>
+      </c>
+      <c r="G44" s="12">
+        <v>0.71275200000000005</v>
+      </c>
+      <c r="H44" s="12">
+        <f>G44/E44</f>
+        <v>1.0239914795719482</v>
+      </c>
+      <c r="I44" s="16">
+        <f>H44/16</f>
+        <v>6.3999467473246766E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="B45" s="13">
+        <v>0.69242800000000004</v>
+      </c>
+      <c r="C45" s="7">
+        <v>0.70498099999999997</v>
+      </c>
+      <c r="D45" s="13">
+        <v>0.71811599999999998</v>
+      </c>
+      <c r="E45" s="12">
+        <f t="shared" ref="E45:E50" si="6">AVERAGE(B45:D45)</f>
+        <v>0.705175</v>
+      </c>
+      <c r="G45" s="12">
+        <v>0.97748199999999996</v>
+      </c>
+      <c r="H45" s="12">
+        <f t="shared" ref="H45:H51" si="7">G45/E45</f>
+        <v>1.3861552096997198</v>
+      </c>
+      <c r="I45" s="16">
+        <f t="shared" ref="I45:I50" si="8">H45/16</f>
+        <v>8.663470060623249E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="B46" s="13">
+        <v>0.744008</v>
+      </c>
+      <c r="C46" s="7">
+        <v>0.76391500000000001</v>
+      </c>
+      <c r="D46" s="13">
+        <v>0.75629000000000002</v>
+      </c>
+      <c r="E46" s="12">
         <f t="shared" si="6"/>
-        <v>1.5252762685767132</v>
-      </c>
+        <v>0.75473766666666664</v>
+      </c>
+      <c r="G46" s="12">
+        <v>1.8836189999999999</v>
+      </c>
+      <c r="H46" s="12">
+        <f t="shared" si="7"/>
+        <v>2.4957267712887434</v>
+      </c>
+      <c r="I46" s="16">
+        <f t="shared" si="8"/>
+        <v>0.15598292320554646</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="B47" s="13">
+        <v>0.95347199999999999</v>
+      </c>
+      <c r="C47" s="7">
+        <v>0.98564399999999996</v>
+      </c>
+      <c r="D47" s="13">
+        <v>0.97901700000000003</v>
+      </c>
+      <c r="E47" s="12">
+        <f t="shared" si="6"/>
+        <v>0.97271099999999999</v>
+      </c>
+      <c r="G47" s="12">
+        <v>5.4891839999999998</v>
+      </c>
+      <c r="H47" s="12">
+        <f t="shared" si="7"/>
+        <v>5.6431807597528971</v>
+      </c>
+      <c r="I47" s="16">
+        <f t="shared" si="8"/>
+        <v>0.35269879748455607</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="10">
+        <v>1E-4</v>
+      </c>
+      <c r="B48" s="13">
+        <v>2.8041070000000001</v>
+      </c>
+      <c r="C48" s="7">
+        <v>2.778025</v>
+      </c>
+      <c r="D48" s="13">
+        <v>2.8070810000000002</v>
+      </c>
+      <c r="E48" s="12">
+        <f t="shared" si="6"/>
+        <v>2.7964043333333333</v>
+      </c>
+      <c r="G48" s="12">
+        <v>33.476080000000003</v>
+      </c>
+      <c r="H48" s="12">
+        <f t="shared" si="7"/>
+        <v>11.971115764971042</v>
+      </c>
+      <c r="I48" s="16">
+        <f t="shared" si="8"/>
+        <v>0.74819473531069014</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="10">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B49" s="13">
+        <v>9.7591350000000006</v>
+      </c>
+      <c r="C49" s="7">
+        <v>9.7803310000000003</v>
+      </c>
+      <c r="D49" s="13">
+        <v>9.7746060000000003</v>
+      </c>
+      <c r="E49" s="12">
+        <f t="shared" si="6"/>
+        <v>9.7713573333333343</v>
+      </c>
+      <c r="G49" s="12">
+        <v>141.79021499999999</v>
+      </c>
+      <c r="H49" s="12">
+        <f t="shared" si="7"/>
+        <v>14.510800307783917</v>
+      </c>
+      <c r="I49" s="16">
+        <f t="shared" si="8"/>
+        <v>0.90692501923649482</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="10">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B50" s="13">
+        <v>28.248823999999999</v>
+      </c>
+      <c r="C50" s="13">
+        <v>28.366050000000001</v>
+      </c>
+      <c r="D50" s="13">
+        <v>28.371977000000001</v>
+      </c>
+      <c r="E50" s="12">
+        <f t="shared" si="6"/>
+        <v>28.328950333333335</v>
+      </c>
+      <c r="G50" s="12">
+        <v>442.473412</v>
+      </c>
+      <c r="H50" s="12">
+        <f t="shared" si="7"/>
+        <v>15.619124845559931</v>
+      </c>
+      <c r="I50" s="16">
+        <f t="shared" si="8"/>
+        <v>0.97619530284749567</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
